--- a/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-3-2.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-3-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E4DA8-84FE-454A-9876-AAF544045B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCCD99-88AD-0544-947C-06D9660D715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -8271,8 +8271,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A35" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -8609,6 +8609,9 @@
       <c r="B28" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="4"/>
@@ -8711,6 +8714,9 @@
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="B39" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
@@ -9689,8 +9695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16736C-8553-9D4D-B802-4A99D7B4A705}">
   <dimension ref="A1:F992"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -9861,6 +9867,9 @@
       <c r="B13" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="4"/>
@@ -9996,6 +10005,9 @@
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="B27" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-3-2.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-3-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCCD99-88AD-0544-947C-06D9660D715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA07E546-4AA8-441F-8D68-F2D2CDA2A9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="114">
   <si>
     <t>파일명</t>
   </si>
@@ -1737,7 +1737,7 @@
   </si>
   <si>
     <t>Reset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>···?</t>
@@ -1755,12 +1755,8 @@
     <t>판초</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;시스템&gt;&lt;b/&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2-3-2 Npc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(지금은 공사장 쪽 일이 먼저야.)</t>
@@ -2779,7 +2775,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(보자기를 빌려 잠시 자리를 비운다.)</t>
@@ -2936,8 +2932,245 @@
     <t>여긴 하수구 처리도 잘 안 되어 있거든.</t>
   </si>
   <si>
-    <r>
-      <t>&lt;b&gt;‘수상한 편지’&lt;b/&gt;</t>
+    <t>(이야기를 계속 듣는다.)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해진보따리:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수상한편지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Remove</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>해진보따리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Add</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-3-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+      </rPr>
+      <t>판초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+      </rPr>
+      <t>사용 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-3-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+      </rPr>
+      <t>판초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+      </rPr>
+      <t>사용 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;시스템&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;’해진 보따리’&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 획득하였다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>열쇠 &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&lt;인내&gt;&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 획득하였다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;‘수상한 편지’&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2949,73 +3182,42 @@
       </rPr>
       <t>를 사용하였다.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>해진보따리:Get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해진보따리:Remove</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이야기를 계속 듣는다.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>열쇠 &lt;b&gt;</t>
+    <r>
+      <t>Tendency-</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>&lt;인내&gt;&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;’해진 보따리’&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 획득하였다.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>감인</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3087,6 +3289,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3108,32 +3344,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3358,9 +3603,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -4425,7 +4670,7 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -4439,20 +4684,20 @@
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:16" ht="16.5">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -4521,7 +4766,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5602,7 +5847,7 @@
     <row r="975" ht="16.5" customHeight="1"/>
     <row r="976" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -5614,23 +5859,23 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P964"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -5727,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -6745,7 +6990,7 @@
     <row r="963" ht="16.5" customHeight="1"/>
     <row r="964" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -6756,23 +7001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A791D-A461-1F4A-801E-791B650ED135}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -6850,17 +7095,17 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>106</v>
+      <c r="F6" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
@@ -6868,7 +7113,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6880,7 +7125,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6892,7 +7137,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6903,7 +7148,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6914,7 +7159,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6925,7 +7170,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6936,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6947,7 +7192,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6969,7 +7214,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6991,7 +7236,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7002,7 +7247,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7013,7 +7258,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7024,7 +7269,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7046,7 +7291,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7068,7 +7313,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -7079,7 +7324,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -7090,7 +7335,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -7112,7 +7357,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -7123,7 +7368,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -7134,7 +7379,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -7145,7 +7390,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -7156,7 +7401,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -7167,7 +7412,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7178,7 +7423,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7200,7 +7445,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7211,7 +7456,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7222,7 +7467,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7233,7 +7478,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7244,7 +7489,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -7255,7 +7500,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -7266,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -7277,7 +7522,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -7288,7 +7533,7 @@
         <v>25</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -7299,7 +7544,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -8259,7 +8504,7 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -8271,23 +8516,23 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F991"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -8355,7 +8600,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8368,7 +8613,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8380,7 +8625,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8392,7 +8637,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8404,7 +8649,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8415,7 +8660,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8426,7 +8671,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -8448,7 +8693,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -8459,7 +8704,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8470,7 +8715,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8481,7 +8726,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -8492,7 +8737,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8503,7 +8748,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8514,7 +8759,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8525,7 +8770,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -8536,7 +8781,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8547,7 +8792,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -8556,7 +8801,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -8575,16 +8820,16 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>105</v>
+      <c r="F25" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
@@ -8599,7 +8844,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -8607,7 +8852,7 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -8616,7 +8861,7 @@
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -8634,7 +8879,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -8645,7 +8890,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8656,7 +8901,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -8665,7 +8910,7 @@
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -8684,13 +8929,16 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36">
         <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
@@ -8705,7 +8953,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -8713,7 +8961,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>13</v>
@@ -8722,7 +8970,7 @@
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -9684,7 +9932,7 @@
     <row r="990" ht="16.5" customHeight="1"/>
     <row r="991" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -9695,23 +9943,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA16736C-8553-9D4D-B802-4A99D7B4A705}">
   <dimension ref="A1:F992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -9779,7 +10027,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9792,7 +10040,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9804,7 +10052,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9816,7 +10064,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9836,13 +10084,16 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -9857,7 +10108,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -9865,7 +10116,7 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -9874,7 +10125,7 @@
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9892,7 +10143,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9914,7 +10165,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9925,7 +10176,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9936,7 +10187,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9947,7 +10198,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9956,7 +10207,7 @@
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -9975,13 +10226,16 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24">
         <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
@@ -9996,7 +10250,7 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -10004,7 +10258,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -10013,10 +10267,13 @@
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
@@ -10031,7 +10288,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10039,18 +10296,21 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="F31" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -10061,7 +10321,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -10072,7 +10332,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -10083,7 +10343,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -10105,7 +10365,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -10116,7 +10376,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -10127,7 +10387,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -10135,14 +10395,15 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="C41">
@@ -11104,7 +11365,7 @@
     <row r="991" ht="16.5" customHeight="1"/>
     <row r="992" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
